--- a/99 Other/省渠道包.xlsx
+++ b/99 Other/省渠道包.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="16095" windowHeight="7770"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="16095" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>以下省分渠道需要做一下最新的渠道包</t>
   </si>
@@ -112,17 +112,21 @@
   </si>
   <si>
     <t>浙江</t>
+  </si>
+  <si>
+    <t>沃游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -135,7 +139,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -163,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -223,13 +227,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,17 +275,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -335,6 +370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -369,6 +405,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,25 +581,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="87" thickBot="1">
+    <row r="1" spans="1:3" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickBot="1">
+    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>18129</v>
       </c>
@@ -571,7 +608,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1">
+    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>18130</v>
       </c>
@@ -580,7 +617,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="17.25" thickBot="1">
+    <row r="4" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>18131</v>
       </c>
@@ -589,7 +626,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="17.25" thickBot="1">
+    <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>18132</v>
       </c>
@@ -598,7 +635,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="17.25" thickBot="1">
+    <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>18133</v>
       </c>
@@ -607,7 +644,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" thickBot="1">
+    <row r="7" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>18082</v>
       </c>
@@ -616,7 +653,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1">
+    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>18134</v>
       </c>
@@ -625,7 +662,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="17.25" thickBot="1">
+    <row r="9" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>18135</v>
       </c>
@@ -634,7 +671,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="17.25" thickBot="1">
+    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>18136</v>
       </c>
@@ -643,7 +680,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1">
+    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>18137</v>
       </c>
@@ -652,7 +689,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="17.25" thickBot="1">
+    <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>18138</v>
       </c>
@@ -661,7 +698,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="17.25" thickBot="1">
+    <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>18139</v>
       </c>
@@ -670,7 +707,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="17.25" thickBot="1">
+    <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>18085</v>
       </c>
@@ -679,7 +716,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="17.25" thickBot="1">
+    <row r="15" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>18128</v>
       </c>
@@ -687,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.25" thickBot="1">
+    <row r="16" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>18140</v>
       </c>
@@ -695,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" thickBot="1">
+    <row r="17" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>18141</v>
       </c>
@@ -703,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" thickBot="1">
+    <row r="18" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>18142</v>
       </c>
@@ -711,7 +748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" thickBot="1">
+    <row r="19" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18143</v>
       </c>
@@ -719,7 +756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" thickBot="1">
+    <row r="20" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18144</v>
       </c>
@@ -727,7 +764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25" thickBot="1">
+    <row r="21" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18145</v>
       </c>
@@ -735,7 +772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25" thickBot="1">
+    <row r="22" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>18146</v>
       </c>
@@ -743,7 +780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" thickBot="1">
+    <row r="23" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>18147</v>
       </c>
@@ -751,7 +788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" thickBot="1">
+    <row r="24" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>18148</v>
       </c>
@@ -759,7 +796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" thickBot="1">
+    <row r="25" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>18149</v>
       </c>
@@ -767,7 +804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.25" thickBot="1">
+    <row r="26" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>18150</v>
       </c>
@@ -775,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25" thickBot="1">
+    <row r="27" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>18180</v>
       </c>
@@ -783,7 +820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.25" thickBot="1">
+    <row r="28" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>18181</v>
       </c>
@@ -791,7 +828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" thickBot="1">
+    <row r="29" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>18182</v>
       </c>
@@ -799,7 +836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.25" thickBot="1">
+    <row r="30" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>18183</v>
       </c>
@@ -807,7 +844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25" thickBot="1">
+    <row r="31" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>18184</v>
       </c>
@@ -815,12 +852,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25" thickBot="1">
+    <row r="32" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>18185</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>18589</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -831,12 +876,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -844,12 +889,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
